--- a/55.xlsx
+++ b/55.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10875" windowHeight="7710"/>
+    <workbookView windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,11 +183,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +196,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -205,47 +227,93 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,97 +325,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,43 +349,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,60 +493,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,61 +511,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +546,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,221 +646,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1154,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="B1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1173,35 +1175,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="2" s="1" customFormat="1" spans="2:3">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:3">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
+    <row r="4" s="1" customFormat="1" spans="2:3">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
+    <row r="5" s="1" customFormat="1" spans="2:3">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1382,7 +1384,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C35" t="s">

--- a/55.xlsx
+++ b/55.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>项</t>
   </si>
@@ -175,6 +175,126 @@
   </si>
   <si>
     <t>适宜技术推广回访总数？（86）</t>
+  </si>
+  <si>
+    <t>计算百分比</t>
+  </si>
+  <si>
+    <t>按时就诊率</t>
+  </si>
+  <si>
+    <t>（预约患者按时就诊人次数） 4</t>
+  </si>
+  <si>
+    <t>（网上预约人次数）3</t>
+  </si>
+  <si>
+    <t>预约专家号的患者按时就诊率</t>
+  </si>
+  <si>
+    <t>（预约专家号的患者按时就诊人次数）6</t>
+  </si>
+  <si>
+    <t>（网上预约专家号人次数）5</t>
+  </si>
+  <si>
+    <t>预约普通号的患者按时就诊率</t>
+  </si>
+  <si>
+    <t>（预约普通号的患者按时就诊人次数）8</t>
+  </si>
+  <si>
+    <t>（网上预约普通号人次数）7</t>
+  </si>
+  <si>
+    <t>门诊智慧结算率</t>
+  </si>
+  <si>
+    <t>（门诊智慧结算笔数）16</t>
+  </si>
+  <si>
+    <t>（门诊总结算笔数）15</t>
+  </si>
+  <si>
+    <t>门诊诊间结算率</t>
+  </si>
+  <si>
+    <t>（门诊诊间结算笔数）17</t>
+  </si>
+  <si>
+    <t>门诊自助结算率</t>
+  </si>
+  <si>
+    <t>（门诊自助结算笔数）18</t>
+  </si>
+  <si>
+    <t>门诊移动终端进支付结算率</t>
+  </si>
+  <si>
+    <t>（门诊通过移动终端进行支付的结算笔数）19</t>
+  </si>
+  <si>
+    <t>病房智慧结算率</t>
+  </si>
+  <si>
+    <t>(病房智慧结算笔数)23</t>
+  </si>
+  <si>
+    <t>（病房总结算笔数）22</t>
+  </si>
+  <si>
+    <t>病区（床边）结算笔率</t>
+  </si>
+  <si>
+    <t>(病区（床边）结算笔数)24</t>
+  </si>
+  <si>
+    <t>病房自助结算笔率</t>
+  </si>
+  <si>
+    <t>(病房自助结算笔数)25</t>
+  </si>
+  <si>
+    <t>病房移动终端支付结算率</t>
+  </si>
+  <si>
+    <t>(病房通过移动终端进行支付的结算笔数)26</t>
+  </si>
+  <si>
+    <t>电子发票使用率</t>
+  </si>
+  <si>
+    <t>(电子发票生成数)29</t>
+  </si>
+  <si>
+    <t>(发票总开票数（包括电子发票生成数）)28</t>
+  </si>
+  <si>
+    <t>发票自助打印率</t>
+  </si>
+  <si>
+    <t>(发票总打印数)31</t>
+  </si>
+  <si>
+    <t>检查智慧预约率</t>
+  </si>
+  <si>
+    <t>(检查智慧预约人次数)37</t>
+  </si>
+  <si>
+    <t>(检查预约人次数)36</t>
+  </si>
+  <si>
+    <t>检查诊间预约率</t>
+  </si>
+  <si>
+    <t>(检查诊间预约人次数)38</t>
+  </si>
+  <si>
+    <t>检查集中预约率</t>
+  </si>
+  <si>
+    <t>(检查集中预约人次数)39</t>
   </si>
 </sst>
 </file>
@@ -187,7 +307,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +316,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -203,10 +350,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +366,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,7 +390,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +404,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -249,9 +459,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,82 +472,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -355,19 +488,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,48 +644,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,96 +657,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,11 +682,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,41 +754,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,9 +771,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,137 +799,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +938,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1154,17 +1293,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C41"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6.38333333333333" customWidth="1"/>
-    <col min="2" max="2" width="36.525" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
+    <col min="1" max="1" width="25.4083333333333" customWidth="1"/>
+    <col min="2" max="2" width="39.3" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -1421,6 +1560,187 @@
       </c>
       <c r="C41" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
